--- a/UserAdd.xlsx
+++ b/UserAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaSE\Materials\TestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE60FD67-9A80-4B95-A5DF-75CC7B3A115D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B23A3A-4FB5-417D-8C9E-00AD2A9110F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{87470A88-9A09-4FB3-932B-D1CED01B9AE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87470A88-9A09-4FB3-932B-D1CED01B9AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>Shivanip</t>
+  </si>
+  <si>
     <t>userID</t>
   </si>
   <si>
@@ -60,13 +63,10 @@
     <t>krishnasivani95@gmail.com</t>
   </si>
   <si>
+    <t>External</t>
+  </si>
+  <si>
     <t>EndUser</t>
-  </si>
-  <si>
-    <t>krishnasivani_Test0219</t>
-  </si>
-  <si>
-    <t>External</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B01B7C-287E-4A3D-9AE8-7E02CA831E39}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,45 +446,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>7045744638</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>

--- a/UserAdd.xlsx
+++ b/UserAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaSE\Materials\TestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B23A3A-4FB5-417D-8C9E-00AD2A9110F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE60FD67-9A80-4B95-A5DF-75CC7B3A115D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87470A88-9A09-4FB3-932B-D1CED01B9AE9}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{87470A88-9A09-4FB3-932B-D1CED01B9AE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Shivanip</t>
-  </si>
-  <si>
     <t>userID</t>
   </si>
   <si>
@@ -63,10 +60,13 @@
     <t>krishnasivani95@gmail.com</t>
   </si>
   <si>
+    <t>EndUser</t>
+  </si>
+  <si>
+    <t>krishnasivani_Test0219</t>
+  </si>
+  <si>
     <t>External</t>
-  </si>
-  <si>
-    <t>EndUser</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B01B7C-287E-4A3D-9AE8-7E02CA831E39}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,45 +446,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>7045744638</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
